--- a/bots/crawl_ch/output/vegi_coop_2023-01-05.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O522"/>
+  <dimension ref="A1:O521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoni bicolor 1+1 Aktion 2.90 Schweizer Franken</t>
+          <t>Naturaplan Bio Peperoni bicolor 1 + 1 Aktion 2.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1040,13 +1040,13 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Avocado 1 Stück 2+1 Aktion 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Avocado 1 Stück 2 + 1 Aktion 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
         <v>4.5</v>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2595,13 +2595,13 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Chicorée-Salat 13% Aktion 3.40 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Chicorée-Salat Aktion Aktion 3.40 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="n">
         <v>4.5</v>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" t="n">
         <v>3.5</v>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3687,13 +3687,13 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Kiwi 1 Stück 2+1 Aktion 0.80 Schweizer Franken</t>
+          <t>Kiwi 1 Stück 2 + 1 Aktion 0.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -5914,7 +5914,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
         <v>4.5</v>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6574,7 +6574,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7110,7 +7110,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7248,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7916,13 +7916,13 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Apfel des Monats Topaz 6.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Apfel des Monats Topaz 10x Superpunkte Aktion 6.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E124" t="n">
         <v>4.5</v>
@@ -8803,7 +8803,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9440,7 +9440,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137" t="n">
         <v>4.5</v>
@@ -9712,7 +9712,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12313,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="n">
         <v>4.5</v>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14417,7 +14417,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14482,7 +14482,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14618,7 +14618,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14687,7 +14687,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15367,7 +15367,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15546,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15619,7 +15619,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15757,7 +15757,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15899,7 +15899,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -15964,7 +15964,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E233" t="n">
         <v>4.5</v>
@@ -16248,7 +16248,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16364,7 +16364,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16506,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16648,7 +16648,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16717,7 +16717,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16786,7 +16786,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17066,7 +17066,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17135,7 +17135,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17208,7 +17208,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17273,7 +17273,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17419,7 +17419,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17492,7 +17492,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17561,7 +17561,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17630,7 +17630,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17699,7 +17699,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17841,7 +17841,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17910,7 +17910,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18048,7 +18048,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18259,7 +18259,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18405,7 +18405,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18470,7 +18470,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18537,7 +18537,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18606,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18748,7 +18748,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18817,7 +18817,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -18959,7 +18959,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19032,7 +19032,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19097,7 +19097,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19166,7 +19166,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19377,7 +19377,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19446,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19730,7 +19730,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19874,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -19939,7 +19939,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20142,7 +20142,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20207,7 +20207,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20345,7 +20345,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20418,7 +20418,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20491,7 +20491,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20550,13 +20550,13 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Kartoffeln grüne Linie IP-Suisse 1.00 Schweizer Franken</t>
+          <t>Kartoffeln grüne Linie IP-Suisse Superpreis Aktion 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20771,7 +20771,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20840,7 +20840,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -20978,7 +20978,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21187,7 +21187,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21390,7 +21390,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21463,7 +21463,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21802,7 +21802,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21936,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22009,7 +22009,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22072,7 +22072,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -22082,7 +22082,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22228,7 +22228,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22435,7 +22435,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22508,7 +22508,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22577,7 +22577,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23212,7 +23212,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23462,7 +23462,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23531,7 +23531,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23600,7 +23600,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23730,7 +23730,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23779,7 +23779,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23844,7 +23844,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23909,7 +23909,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -23972,7 +23972,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24045,7 +24045,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24108,7 +24108,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24177,7 +24177,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24246,7 +24246,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24309,7 +24309,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Outlawz Food pflanzliche Speck Würfel - Online kein Bestand 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Outlawz Food pflanzliche Speck Würfel - Online kein Bestand 20% ab 2 Stück Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -24319,7 +24319,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24392,7 +24392,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24607,7 +24607,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24676,7 +24676,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24814,7 +24814,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24883,7 +24883,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25025,7 +25025,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25088,7 +25088,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Nature 25% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Yolo Cold Slices Nature 25% ab 2 Stück Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -25098,7 +25098,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25165,7 +25165,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25238,7 +25238,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25303,7 +25303,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25445,7 +25445,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25518,7 +25518,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25656,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25729,7 +25729,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25798,7 +25798,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25863,7 +25863,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -25936,7 +25936,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26078,7 +26078,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26147,7 +26147,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26212,7 +26212,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26285,7 +26285,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26431,7 +26431,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26502,7 +26502,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26571,7 +26571,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26644,7 +26644,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26717,7 +26717,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26790,7 +26790,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26863,7 +26863,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -26936,7 +26936,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27009,7 +27009,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27082,7 +27082,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27228,7 +27228,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27297,7 +27297,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27366,7 +27366,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27439,7 +27439,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27512,7 +27512,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27581,7 +27581,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27646,7 +27646,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27695,7 +27695,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27768,7 +27768,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27833,7 +27833,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27906,7 +27906,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -27973,7 +27973,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28046,7 +28046,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28115,7 +28115,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28257,7 +28257,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28330,7 +28330,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28403,7 +28403,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28468,7 +28468,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28531,7 +28531,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28604,7 +28604,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28819,7 +28819,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28892,7 +28892,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -28957,7 +28957,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29030,7 +29030,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29099,7 +29099,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29162,7 +29162,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29308,7 +29308,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29377,7 +29377,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29450,7 +29450,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29523,7 +29523,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29596,7 +29596,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29669,7 +29669,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29738,7 +29738,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29803,7 +29803,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29876,7 +29876,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -29949,7 +29949,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30022,7 +30022,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30095,7 +30095,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30148,7 +30148,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30217,7 +30217,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30270,7 +30270,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30416,7 +30416,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30489,7 +30489,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30562,7 +30562,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30635,7 +30635,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30702,7 +30702,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30769,7 +30769,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30840,7 +30840,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30913,7 +30913,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31055,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31126,7 +31126,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31197,7 +31197,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31266,7 +31266,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31408,7 +31408,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31481,7 +31481,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31554,7 +31554,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31623,7 +31623,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31696,7 +31696,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31838,7 +31838,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31911,7 +31911,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -31982,7 +31982,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32055,7 +32055,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32128,7 +32128,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32193,7 +32193,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32266,7 +32266,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32335,7 +32335,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32400,7 +32400,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32465,7 +32465,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32538,7 +32538,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32607,7 +32607,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32672,7 +32672,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32741,7 +32741,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32810,7 +32810,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32883,7 +32883,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -32946,7 +32946,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
@@ -33009,45 +33009,43 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>7037874</t>
+          <t>6076334</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Like Meat Bio like Chicken Filet</t>
+          <t>Délicorn Schnitzel mit Käsefüllung</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/like-meat-bio-like-chicken-filet/p/7037874</t>
-        </is>
-      </c>
-      <c r="D475" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="E475" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>LIKE MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>2.71/100g</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -33057,7 +33055,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -33072,53 +33070,51 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>Like Meat Bio like Chicken Filet 5.95 Schweizer Franken</t>
+          <t>Délicorn Schnitzel mit Käsefüllung 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>6076334</t>
+          <t>3819149</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung</t>
+          <t>Tomaten Fragolino</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-fragolino/p/3819149</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>11</v>
+      </c>
       <c r="E476" t="n">
-        <v>0</v>
-      </c>
-      <c r="F476" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2.71/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -33128,7 +33124,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -33138,43 +33134,39 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N476" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Tomaten Fragolino 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>3819149</t>
+          <t>3091180</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tomaten Fragolino</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-fragolino/p/3819149</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -33182,64 +33174,68 @@
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.20/1ST</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>Tomaten Fragolino 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N477" t="inlineStr"/>
+          <t>Batavia 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>3091180</t>
+          <t>3091134</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Tamarillo 1 Stück</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarillo-1-stueck/p/3091134</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -33247,12 +33243,12 @@
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>2.20/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -33262,7 +33258,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -33272,12 +33268,12 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>Batavia 2.20 Schweizer Franken</t>
+          <t>Tamarillo 1 Stück 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N478" t="inlineStr">
@@ -33287,100 +33283,104 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>3091134</t>
+          <t>6803515</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tamarillo 1 Stück</t>
+          <t>Prix Garantie veganer Burger</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarillo-1-stueck/p/3091134</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/prix-garantie-veganer-burger/p/6803515</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E479" t="n">
-        <v>5</v>
-      </c>
-      <c r="F479" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>1.74/100g</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>Tamarillo 1 Stück 1.60 Schweizer Franken</t>
+          <t>Prix Garantie veganer Burger 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>6803515</t>
+          <t>5668660</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Prix Garantie veganer Burger</t>
+          <t>Délicorn Spacebar</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/prix-garantie-veganer-burger/p/6803515</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E480" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -33389,12 +33389,12 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1.74/100g</t>
+          <t>4.88/100g</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -33404,7 +33404,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -33414,12 +33414,12 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>Prix Garantie veganer Burger 3.95 Schweizer Franken</t>
+          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N480" t="inlineStr">
@@ -33429,45 +33429,45 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>5668660</t>
+          <t>3062466</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar</t>
+          <t>Del Maitre Sauerkraut garniert 800g</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
         </is>
       </c>
       <c r="D481" t="n">
         <v>4</v>
       </c>
       <c r="E481" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Del Maitre</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>4.88/100g</t>
+          <t>2.20/100g</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -33487,60 +33487,60 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
+          <t>Del Maitre Sauerkraut garniert 800g 17.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>3062466</t>
+          <t>6115558</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g</t>
+          <t>Naturaplan Bio Poker Salat</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-poker-salat/p/6115558</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E482" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Del Maitre</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>2.20/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -33550,7 +33550,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -33560,60 +33560,50 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g 17.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N482" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Poker Salat 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>6115558</t>
+          <t>7060571</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Poker Salat</t>
+          <t>Swiss Cherry Rispen-Tomaten</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-poker-salat/p/6115558</t>
-        </is>
-      </c>
-      <c r="D483" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/swiss-cherry-rispen-tomaten/p/7060571</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
       <c r="E483" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F483" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -33623,7 +33613,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -33633,50 +33623,56 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Poker Salat 1.95 Schweizer Franken</t>
+          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>7060571</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/swiss-cherry-rispen-tomaten/p/7060571</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>11</v>
+      </c>
       <c r="E484" t="n">
-        <v>0</v>
-      </c>
-      <c r="F484" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -33686,7 +33682,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -33696,56 +33692,58 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N484" t="inlineStr"/>
+          <t>Yolo Filets 25% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>6986645</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Naturaplan Bio Randen gekocht</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
-        </is>
-      </c>
-      <c r="D485" t="n">
-        <v>11</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/naturaplan-bio-randen-gekocht/p/6986645</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
       <c r="E485" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -33755,7 +33753,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -33765,58 +33763,56 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Yolo Filets 25% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N485" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Randen gekocht 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>6986645</t>
+          <t>6987153</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Randen gekocht</t>
+          <t>Luya Bio Chunks Garden Herbs</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/naturaplan-bio-randen-gekocht/p/6986645</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-garden-herbs/p/6987153</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>10</v>
+      </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Luya</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>3.97/100g</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -33826,7 +33822,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -33836,186 +33832,190 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Randen gekocht 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N486" t="inlineStr"/>
+          <t>Luya Bio Chunks Garden Herbs 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>6987153</t>
+          <t>6338190</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks Garden Herbs</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-garden-herbs/p/6987153</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E487" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Luya</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3.97/100g</t>
-        </is>
-      </c>
-      <c r="I487" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J487" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks Garden Herbs 6.95 Schweizer Franken</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>6338190</t>
+          <t>7031952</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G</t>
+          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H488" t="inlineStr"/>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2.43/100g</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>7031952</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella</t>
+          <t>The Green Mountain plant-based Tranchen vegan</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-pastasalat-tomaten-mozzarella/p/7031952</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -34025,7 +34025,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -34035,194 +34035,194 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pastasalat Tomaten &amp;amp; Mozzarella 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N489" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>3582348</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan</t>
+          <t>Mini Artischocken 4 Stück</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E490" t="n">
-        <v>5</v>
-      </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
+          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>3582348</t>
+          <t>6987208</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück</t>
+          <t>The Green Mountain plant-based Pfefferfilet</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
         </is>
       </c>
       <c r="D491" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
       </c>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.48/100g</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N491" t="inlineStr"/>
+          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>6987208</t>
+          <t>6867027</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet</t>
+          <t>Yolo Filet Herbs</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-filet-herbs/p/6867027</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>4.48/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -34232,7 +34232,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -34242,50 +34242,48 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
+          <t>Yolo Filet Herbs 25% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>6867027</t>
+          <t>6862504</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Yolo Filet Herbs</t>
+          <t>Betty Bossi Sous vide Belugalinsen</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-filet-herbs/p/6867027</t>
-        </is>
-      </c>
-      <c r="D493" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-belugalinsen/p/6862504</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
       <c r="E493" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -34295,7 +34293,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -34305,7 +34303,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -34315,58 +34313,56 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>Yolo Filet Herbs 25% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Belugalinsen 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>6862504</t>
+          <t>6754922</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Belugalinsen</t>
+          <t>Snack Jungchicoree</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-belugalinsen/p/6862504</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>2</v>
+      </c>
       <c r="E494" t="n">
-        <v>0</v>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -34376,7 +34372,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -34386,56 +34382,56 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Belugalinsen 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N494" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>6754922</t>
+          <t>6308951</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree</t>
+          <t>Primagusto Wildfeigen</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E495" t="n">
-        <v>3</v>
-      </c>
-      <c r="F495" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Primagusto</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -34445,7 +34441,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -34455,56 +34451,56 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
+          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>6308951</t>
+          <t>7019070</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen</t>
+          <t>Vivera veganes Lachsfilet 2x100g</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
         </is>
       </c>
       <c r="D496" t="n">
         <v>4</v>
       </c>
       <c r="E496" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -34514,7 +34510,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -34524,48 +34520,48 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N496" t="inlineStr"/>
+          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>7019070</t>
+          <t>3947304</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g</t>
+          <t>Tamarinde</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E497" t="n">
-        <v>4</v>
-      </c>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>Vivera</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -34573,7 +34569,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -34583,7 +34579,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -34593,56 +34589,56 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N497" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Tamarinde 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>3947304</t>
+          <t>7069723</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tamarinde</t>
+          <t>Wild Foods Dry Age</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/wild-foods-dry-age/p/7069723</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E498" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F498" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>WILD FOODS</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>12.44/100g</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -34652,7 +34648,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -34662,56 +34658,60 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>Tamarinde 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N498" t="inlineStr"/>
+          <t>Wild Foods Dry Age 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>7069723</t>
+          <t>6987154</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Wild Foods Dry Age</t>
+          <t>Luya Bio Chunks BBQ</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/wild-foods-dry-age/p/7069723</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-bbq/p/6987154</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E499" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>WILD FOODS</t>
+          <t>Luya</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>12.44/100g</t>
+          <t>3.97/100g</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -34731,12 +34731,12 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>Wild Foods Dry Age 9.95 Schweizer Franken</t>
+          <t>Luya Bio Chunks BBQ 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N499" t="inlineStr">
@@ -34746,35 +34746,33 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>6987154</t>
+          <t>7038834</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks BBQ</t>
+          <t>Bio Kürbis Muscade gross Demeter 1 Stück</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/luya-bio-chunks-bbq/p/6987154</t>
-        </is>
-      </c>
-      <c r="D500" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/bio-kuerbis-muscade-gross-demeter-1-stueck/p/7038834</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
       <c r="E500" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Luya</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -34782,121 +34780,119 @@
           <t>6.95</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3.97/100g</t>
-        </is>
-      </c>
-      <c r="I500" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J500" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>Luya Bio Chunks BBQ 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N500" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bio Kürbis Muscade gross Demeter 1 Stück 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>7038834</t>
+          <t>6564002</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Bio Kürbis Muscade gross Demeter 1 Stück</t>
+          <t>Radicchio di Treviso</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/bio-kuerbis-muscade-gross-demeter-1-stueck/p/7038834</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>6</v>
+      </c>
       <c r="E501" t="n">
-        <v>0</v>
-      </c>
-      <c r="F501" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="H501" t="inlineStr"/>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>1.98/100g</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>Bio Kürbis Muscade gross Demeter 1 Stück 6.95 Schweizer Franken</t>
+          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>6564002</t>
+          <t>6962237</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso</t>
+          <t>Délicorn Bio Chili Würstli</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-bio-chili-wuerstli/p/6962237</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E502" t="n">
-        <v>4</v>
-      </c>
-      <c r="F502" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -34904,7 +34900,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -34914,7 +34910,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -34924,56 +34920,60 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N502" t="inlineStr"/>
+          <t>Délicorn Bio Chili Würstli 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>6962237</t>
+          <t>7019161</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli</t>
+          <t>Snack VegestorySnack 3 Seeds</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-bio-chili-wuerstli/p/6962237</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/snack-vegestorysnack-3-seeds/p/7019161</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E503" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>SNACKIT</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>4.39/100g</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -34983,7 +34983,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -34998,7 +34998,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli 5.95 Schweizer Franken</t>
+          <t>Snack VegestorySnack 3 Seeds 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N503" t="inlineStr">
@@ -35008,45 +35008,43 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>7019161</t>
+          <t>7014561</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Snack VegestorySnack 3 Seeds</t>
+          <t>Yolo Ocean Burger</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/snack-vegestorysnack-3-seeds/p/7019161</t>
-        </is>
-      </c>
-      <c r="D504" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>SNACKIT</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>4.39/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -35056,7 +35054,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -35066,12 +35064,12 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>Snack VegestorySnack 3 Seeds 3.95 Schweizer Franken</t>
+          <t>Yolo Ocean Burger 25% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N504" t="inlineStr">
@@ -35081,43 +35079,45 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>7014561</t>
+          <t>6723051</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger</t>
+          <t>The Green Mountain plant-based Bauernbratwurstalternative</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bauernbratwurstalternative/p/6723051</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>14</v>
+      </c>
       <c r="E505" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -35127,7 +35127,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -35137,12 +35137,12 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger 25% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Bauernbratwurstalternative 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N505" t="inlineStr">
@@ -35152,31 +35152,31 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>6723051</t>
+          <t>7032802</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bauernbratwurstalternative</t>
+          <t>The Green Mountain plant-based Schnitzel</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bauernbratwurstalternative/p/6723051</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -35185,12 +35185,12 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>4.17/100g</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -35210,60 +35210,60 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bauernbratwurstalternative 6.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>7032802</t>
+          <t>6002381</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel</t>
+          <t>Algues de Bretagne Meeressalat</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/algues-de-bretagne-meeressalat/p/6002381</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E507" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Algues de Bretagne</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>4.17/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -35273,7 +35273,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -35283,12 +35283,12 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
+          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N507" t="inlineStr">
@@ -35298,35 +35298,35 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>6002381</t>
+          <t>6996620</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat</t>
+          <t>Naturli Mince</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/algues-de-bretagne-meeressalat/p/6002381</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/naturli-mince/p/6996620</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Algues de Bretagne</t>
+          <t>Naturli</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -35336,7 +35336,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -35346,7 +35346,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -35356,12 +35356,12 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
+          <t>Naturli Mince 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N508" t="inlineStr">
@@ -35371,187 +35371,185 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>6996620</t>
+          <t>6073300</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Naturli Mince</t>
+          <t>Pro Specie Rara Explorer Box</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/naturli-mince/p/6996620</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E509" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Naturli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>8.25/1kg</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>Naturli Mince 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N509" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>6073300</t>
+          <t>6868671</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box</t>
+          <t>Yolo Crunchies</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/6868671</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E510" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>8.25/1kg</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N510" t="inlineStr"/>
+          <t>Yolo Crunchies 25% ab 2 Aktion 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>6868671</t>
+          <t>6862505</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Yolo Crunchies</t>
+          <t>Betty Bossi Sous vide Kichererbsen</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/6868671</t>
-        </is>
-      </c>
-      <c r="D511" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-kichererbsen/p/6862505</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
       <c r="E511" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>1.21/100g</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -35561,7 +35559,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -35571,39 +35569,39 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>Yolo Crunchies 25% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Kichererbsen 4.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>6862505</t>
+          <t>7031479</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kichererbsen</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-kichererbsen/p/6862505</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
@@ -35617,12 +35615,12 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>1.21/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -35632,7 +35630,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -35642,44 +35640,46 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kichererbsen 4.25 Schweizer Franken</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>7031479</t>
+          <t>6050562</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
+          <t>Délicorn Tischgrillplatte</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-tischgrillplatte/p/6050562</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>4</v>
+      </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -35688,12 +35688,12 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>3.10/100g</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -35703,7 +35703,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -35713,12 +35713,12 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
+          <t>Délicorn Tischgrillplatte 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N513" t="inlineStr">
@@ -35728,32 +35728,32 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>6050562</t>
+          <t>6073299</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Délicorn Tischgrillplatte</t>
+          <t>Naturaplan Bio Office Snack Box</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-tischgrillplatte/p/6050562</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-office-snack-box/p/6073299</t>
         </is>
       </c>
       <c r="D514" t="n">
+        <v>12</v>
+      </c>
+      <c r="E514" t="n">
         <v>4</v>
       </c>
-      <c r="E514" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F514" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -35761,144 +35761,144 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>3.10/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t>Délicorn Tischgrillplatte 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N514" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Office Snack Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>6073299</t>
+          <t>6739951</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Office Snack Box</t>
+          <t>Yolo marinated Pieces</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-office-snack-box/p/6073299</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E515" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Office Snack Box 20.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N515" t="inlineStr"/>
+          <t>Yolo marinated Pieces 25% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>6739951</t>
+          <t>6984752</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces</t>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -35908,7 +35908,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -35928,60 +35928,56 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces 25% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>6984752</t>
+          <t>4227096</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
+          <t>Cima di Rapa</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
         </is>
       </c>
       <c r="D517" t="n">
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>5</v>
-      </c>
-      <c r="F517" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -35991,7 +35987,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -36001,56 +35997,50 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N517" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Cima di Rapa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>4227096</t>
+          <t>6845831</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Cima di Rapa</t>
+          <t>Catalogna</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
-        </is>
-      </c>
-      <c r="D518" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr"/>
       <c r="E518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -36060,7 +36050,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -36075,45 +36065,49 @@
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>Cima di Rapa 2.95 Schweizer Franken</t>
+          <t>Catalogna 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>6845831</t>
+          <t>7117730</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Catalogna</t>
+          <t>Naturaplan Bio Cicorino Trio</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-cicorino-trio/p/7117730</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="n">
         <v>0</v>
       </c>
-      <c r="F519" t="inlineStr"/>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>0.62/100g</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -36123,7 +36117,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -36133,35 +36127,35 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>Catalogna 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Cicorino Trio 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>7117730</t>
+          <t>7065419</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cicorino Trio</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-cicorino-trio/p/7117730</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
@@ -36175,12 +36169,12 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>0.62/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -36190,7 +36184,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -36200,35 +36194,39 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cicorino Trio 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N520" t="inlineStr"/>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen - Online kein Bestand 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>7065419</t>
+          <t>6569312</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+          <t>Bio orientalischer Baby Leaf</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/bio-orientalischer-baby-leaf/p/6569312</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
@@ -36242,12 +36240,12 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -36257,7 +36255,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -36267,89 +36265,18 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N521" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bio orientalischer Baby Leaf 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-05 12:58:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>6569312</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>Bio orientalischer Baby Leaf</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/bio-orientalischer-baby-leaf/p/6569312</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="n">
-        <v>0</v>
-      </c>
-      <c r="F522" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3.20/100g</t>
-        </is>
-      </c>
-      <c r="I522" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J522" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
-        </is>
-      </c>
-      <c r="M522" t="inlineStr">
-        <is>
-          <t>Bio orientalischer Baby Leaf 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N522" t="inlineStr"/>
-      <c r="O522" t="inlineStr">
-        <is>
-          <t>2023-01-05 12:58:48</t>
+          <t>2023-01-05 20:51:46</t>
         </is>
       </c>
     </row>
